--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_18_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129356.1696998171</v>
+        <v>-129576.7775493228</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.5951960783</v>
+        <v>244259.5951960787</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.689056482851781</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="F11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="G11" t="n">
-        <v>9.954442416102966</v>
+        <v>7.689056482852378</v>
       </c>
       <c r="H11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0.1483482279415966</v>
       </c>
       <c r="P11" t="n">
-        <v>6.824007688654262</v>
+        <v>6.824007688654206</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6826295890907659</v>
+        <v>0.6826295890905953</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.371686071942877</v>
+        <v>7.689056482851823</v>
       </c>
       <c r="F14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="G14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="H14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1483482279415966</v>
+        <v>0.1483482279417672</v>
       </c>
       <c r="P14" t="n">
-        <v>6.824007688654262</v>
+        <v>6.824007688654376</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.6826295890907659</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
     </row>
     <row r="15">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.23025679607269</v>
+        <v>10.23025679607275</v>
       </c>
       <c r="F17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="G17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="H17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.22716416675991</v>
+        <v>10.22716416676013</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.601546259976235</v>
+        <v>5.601546259976431</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.16116226507091</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.23025679607235</v>
+        <v>10.23025679607275</v>
       </c>
       <c r="F20" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="G20" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="H20" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10.22716416675956</v>
+        <v>10.22716416676013</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.601546259975919</v>
+        <v>5.601546259976431</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.34157517596248</v>
+        <v>14.34157517596242</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.410669706963915</v>
+        <v>8.410669706963859</v>
       </c>
       <c r="F23" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="G23" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="H23" t="n">
-        <v>26.91487860438298</v>
+        <v>26.91487860438292</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.407577077651151</v>
+        <v>8.40757707765124</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.781959170867481</v>
+        <v>3.781959170867538</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.34157517596236</v>
+        <v>14.34157517596242</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.410669706963802</v>
+        <v>8.410669706963859</v>
       </c>
       <c r="F26" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="G26" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="H26" t="n">
-        <v>26.91487860438286</v>
+        <v>26.91487860438292</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.407577077651013</v>
+        <v>8.407577077651236</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.781959170867367</v>
+        <v>3.781959170867538</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.18155298684076</v>
+        <v>31.18155298684081</v>
       </c>
     </row>
     <row r="27">
@@ -2801,10 +2801,10 @@
         <v>8.410669706963802</v>
       </c>
       <c r="F29" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="G29" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="H29" t="n">
         <v>26.91487860438286</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.407577077651013</v>
+        <v>8.40757707765118</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.781959170867367</v>
+        <v>3.781959170867481</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.35235287977088</v>
+        <v>13.35235287977076</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.421447410772316</v>
+        <v>7.421447410772203</v>
       </c>
       <c r="F32" t="n">
-        <v>47.34271525191208</v>
+        <v>47.3427152519123</v>
       </c>
       <c r="G32" t="n">
-        <v>47.34271525191208</v>
+        <v>47.3427152519123</v>
       </c>
       <c r="H32" t="n">
-        <v>25.92565630819138</v>
+        <v>25.92565630819126</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.418354781459527</v>
+        <v>7.418354781459584</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.792736874675857</v>
+        <v>2.792736874675882</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.19233069064927</v>
+        <v>30.19233069064916</v>
       </c>
     </row>
     <row r="33">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.35235287977127</v>
+        <v>13.35235287977076</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.421447410772714</v>
+        <v>7.421447410772203</v>
       </c>
       <c r="F35" t="n">
-        <v>37.38827283580912</v>
+        <v>37.38827283580883</v>
       </c>
       <c r="G35" t="n">
-        <v>37.38827283580912</v>
+        <v>37.38827283580883</v>
       </c>
       <c r="H35" t="n">
-        <v>25.92565630819178</v>
+        <v>25.92565630819128</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.41835478145995</v>
+        <v>7.41835478145958</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.792736874676255</v>
+        <v>2.792736874675875</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.19233069064967</v>
+        <v>30.19233069064916</v>
       </c>
     </row>
     <row r="36">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.96166279341782</v>
+        <v>13.96166279341776</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.030757324419255</v>
+        <v>8.030757324419199</v>
       </c>
       <c r="F38" t="n">
-        <v>37.38827283580877</v>
+        <v>37.38827283580929</v>
       </c>
       <c r="G38" t="n">
-        <v>37.38827283580877</v>
+        <v>37.38827283580929</v>
       </c>
       <c r="H38" t="n">
-        <v>26.53496622183832</v>
+        <v>26.53496622183826</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.027664695106466</v>
+        <v>8.02766469510658</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>3.402046788322821</v>
+        <v>3.402046788322878</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.80164060429621</v>
+        <v>30.80164060429615</v>
       </c>
     </row>
     <row r="39">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.407577077651194</v>
+        <v>8.407577077651183</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.34157517596259</v>
+        <v>14.34157517596242</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.410669706964029</v>
+        <v>8.410669706963859</v>
       </c>
       <c r="F44" t="n">
-        <v>31.18155298683942</v>
+        <v>31.18155298684071</v>
       </c>
       <c r="G44" t="n">
-        <v>31.18155298683942</v>
+        <v>31.18155298684071</v>
       </c>
       <c r="H44" t="n">
-        <v>26.91487860438309</v>
+        <v>26.91487860438292</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.40757707765124</v>
+        <v>8.407577077651236</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.781959170867569</v>
+        <v>3.781959170867538</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.18155298683942</v>
+        <v>31.18155298684071</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.01826014795051</v>
+        <v>19.01826014795168</v>
       </c>
       <c r="C11" t="n">
-        <v>28.87315813989246</v>
+        <v>28.87315813989411</v>
       </c>
       <c r="D11" t="n">
-        <v>38.72805613183439</v>
+        <v>38.72805613183655</v>
       </c>
       <c r="E11" t="n">
-        <v>30.96133241178208</v>
+        <v>28.67306379233809</v>
       </c>
       <c r="F11" t="n">
-        <v>20.90634007228413</v>
+        <v>18.61807145283964</v>
       </c>
       <c r="G11" t="n">
-        <v>10.85134773278618</v>
+        <v>10.85134773278673</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="I11" t="n">
-        <v>7.296454416659287</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="J11" t="n">
-        <v>12.29058665984854</v>
+        <v>10.65125338523071</v>
       </c>
       <c r="K11" t="n">
-        <v>20.24550986201331</v>
+        <v>14.18184384465847</v>
       </c>
       <c r="L11" t="n">
-        <v>10.19051752251532</v>
+        <v>4.126851505160022</v>
       </c>
       <c r="M11" t="n">
-        <v>11.02079028504772</v>
+        <v>4.957124267692419</v>
       </c>
       <c r="N11" t="n">
-        <v>13.90280516478094</v>
+        <v>7.839139147425477</v>
       </c>
       <c r="O11" t="n">
-        <v>13.75295846989044</v>
+        <v>7.68929245253495</v>
       </c>
       <c r="P11" t="n">
-        <v>6.860021410643469</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.527217792120379</v>
+        <v>1.463551774765291</v>
       </c>
       <c r="R11" t="n">
-        <v>10.25307568858605</v>
+        <v>4.189409671230578</v>
       </c>
       <c r="S11" t="n">
-        <v>20.10797368052799</v>
+        <v>14.04430766317298</v>
       </c>
       <c r="T11" t="n">
-        <v>20.10797368052799</v>
+        <v>20.10797368052901</v>
       </c>
       <c r="U11" t="n">
-        <v>29.96287167246993</v>
+        <v>29.96287167247144</v>
       </c>
       <c r="V11" t="n">
-        <v>39.81776966441186</v>
+        <v>29.96287167247144</v>
       </c>
       <c r="W11" t="n">
-        <v>39.81776966441186</v>
+        <v>39.81776966441387</v>
       </c>
       <c r="X11" t="n">
-        <v>39.12824482694641</v>
+        <v>39.12824482694859</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.07325248744846</v>
+        <v>29.07325248745013</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="X12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7963553932882372</v>
+        <v>0.7963553932882775</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.70778498541665</v>
+        <v>19.0182601479506</v>
       </c>
       <c r="C14" t="n">
-        <v>29.56268297735893</v>
+        <v>28.87315813989257</v>
       </c>
       <c r="D14" t="n">
-        <v>39.4175809693012</v>
+        <v>38.72805613183455</v>
       </c>
       <c r="E14" t="n">
-        <v>30.96133241178314</v>
+        <v>30.9613324117822</v>
       </c>
       <c r="F14" t="n">
-        <v>20.90634007228485</v>
+        <v>20.90634007228422</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85134773278656</v>
+        <v>10.85134773278623</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="I14" t="n">
         <v>7.296454416659287</v>
       </c>
       <c r="J14" t="n">
-        <v>9.108935522227059</v>
+        <v>17.1513524086011</v>
       </c>
       <c r="K14" t="n">
-        <v>17.06385872439182</v>
+        <v>17.1513524086011</v>
       </c>
       <c r="L14" t="n">
-        <v>7.00886638489353</v>
+        <v>7.096360069103115</v>
       </c>
       <c r="M14" t="n">
-        <v>7.839139147425542</v>
+        <v>7.096360069103115</v>
       </c>
       <c r="N14" t="n">
-        <v>7.839139147425542</v>
+        <v>9.978374948836176</v>
       </c>
       <c r="O14" t="n">
-        <v>7.689292452535041</v>
+        <v>9.828528253945478</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7963553932882647</v>
+        <v>2.935591194698634</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.463551774765175</v>
+        <v>3.602787576175114</v>
       </c>
       <c r="R14" t="n">
-        <v>4.189409671230351</v>
+        <v>3.602787576175114</v>
       </c>
       <c r="S14" t="n">
-        <v>4.189409671230351</v>
+        <v>3.602787576175114</v>
       </c>
       <c r="T14" t="n">
-        <v>14.04430766317263</v>
+        <v>13.45768556811709</v>
       </c>
       <c r="U14" t="n">
-        <v>23.89920565511478</v>
+        <v>23.31258356005907</v>
       </c>
       <c r="V14" t="n">
-        <v>29.96287167247096</v>
+        <v>29.96287167247005</v>
       </c>
       <c r="W14" t="n">
-        <v>39.81776966441323</v>
+        <v>39.81776966441203</v>
       </c>
       <c r="X14" t="n">
-        <v>39.81776966441323</v>
+        <v>39.12824482694657</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.76277732491494</v>
+        <v>29.07325248744858</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="X15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7963553932882647</v>
+        <v>0.7963553932882406</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.99583640357534</v>
+        <v>28.60060340473495</v>
       </c>
       <c r="C17" t="n">
-        <v>44.60015404715531</v>
+        <v>44.60015404715555</v>
       </c>
       <c r="D17" t="n">
-        <v>60.59970468957586</v>
+        <v>60.59970468957609</v>
       </c>
       <c r="E17" t="n">
-        <v>50.26611196627012</v>
+        <v>50.26611196627029</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94170563791531</v>
+        <v>33.94170563791543</v>
       </c>
       <c r="G17" t="n">
-        <v>17.6172993095605</v>
+        <v>17.61729930956056</v>
       </c>
       <c r="H17" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="I17" t="n">
-        <v>9.003228818967973</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="J17" t="n">
-        <v>25.00277946138851</v>
+        <v>17.28148937184864</v>
       </c>
       <c r="K17" t="n">
-        <v>34.16793947794454</v>
+        <v>17.28148937184864</v>
       </c>
       <c r="L17" t="n">
-        <v>23.83747062263145</v>
+        <v>6.951020516535434</v>
       </c>
       <c r="M17" t="n">
-        <v>25.87798019955561</v>
+        <v>6.951020516535434</v>
       </c>
       <c r="N17" t="n">
-        <v>25.87798019955561</v>
+        <v>6.951020516535434</v>
       </c>
       <c r="O17" t="n">
-        <v>25.87798019955561</v>
+        <v>6.951020516535434</v>
       </c>
       <c r="P17" t="n">
-        <v>20.21985266422608</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.09728586009421</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="R17" t="n">
-        <v>26.03338057095061</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="S17" t="n">
-        <v>42.03293121337116</v>
+        <v>17.2924436236263</v>
       </c>
       <c r="T17" t="n">
-        <v>48.1106648966731</v>
+        <v>33.2919942660469</v>
       </c>
       <c r="U17" t="n">
-        <v>48.1106648966731</v>
+        <v>49.2915449084675</v>
       </c>
       <c r="V17" t="n">
-        <v>48.1106648966731</v>
+        <v>49.2915449084675</v>
       </c>
       <c r="W17" t="n">
-        <v>64.11021553909364</v>
+        <v>61.24941606144467</v>
       </c>
       <c r="X17" t="n">
-        <v>64.64464906028502</v>
+        <v>61.24941606144467</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.32024273193014</v>
+        <v>44.92500973308981</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="C18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="D18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="E18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="F18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="H18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="I18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="J18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="K18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="M18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="N18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="P18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="S18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="T18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="U18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="V18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="W18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="X18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="C19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="D19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="G19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="H19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="I19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="J19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="K19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="L19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="M19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="N19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="P19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="S19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="T19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="U19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="X19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.2928929812057</v>
+        <v>1.292892981205705</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.99583640358219</v>
+        <v>31.99583640357503</v>
       </c>
       <c r="C20" t="n">
-        <v>47.99538704600544</v>
+        <v>44.60015404715483</v>
       </c>
       <c r="D20" t="n">
-        <v>60.59970468958223</v>
+        <v>60.59970468957527</v>
       </c>
       <c r="E20" t="n">
-        <v>50.26611196627683</v>
+        <v>50.26611196626947</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94170563791985</v>
+        <v>33.94170563791509</v>
       </c>
       <c r="G20" t="n">
-        <v>17.61729930956286</v>
+        <v>17.61729930956039</v>
       </c>
       <c r="H20" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="I20" t="n">
-        <v>1.292892981205873</v>
+        <v>9.003228818967903</v>
       </c>
       <c r="J20" t="n">
-        <v>17.29244362362855</v>
+        <v>25.00277946138834</v>
       </c>
       <c r="K20" t="n">
-        <v>17.29244362362855</v>
+        <v>34.16793947794412</v>
       </c>
       <c r="L20" t="n">
-        <v>6.961974768315783</v>
+        <v>23.8374706226308</v>
       </c>
       <c r="M20" t="n">
-        <v>6.961974768315783</v>
+        <v>25.8779801995542</v>
       </c>
       <c r="N20" t="n">
-        <v>6.961974768315783</v>
+        <v>29.97023189367832</v>
       </c>
       <c r="O20" t="n">
-        <v>8.025346837045163</v>
+        <v>31.03360396240714</v>
       </c>
       <c r="P20" t="n">
-        <v>2.36721930171592</v>
+        <v>25.37547642707739</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.244652497584391</v>
+        <v>27.25290962294552</v>
       </c>
       <c r="R20" t="n">
-        <v>8.180747208441119</v>
+        <v>27.25290962294552</v>
       </c>
       <c r="S20" t="n">
-        <v>24.1802978508638</v>
+        <v>43.25246026536596</v>
       </c>
       <c r="T20" t="n">
-        <v>24.1802978508638</v>
+        <v>59.2520109077864</v>
       </c>
       <c r="U20" t="n">
-        <v>40.17984849328648</v>
+        <v>59.2520109077864</v>
       </c>
       <c r="V20" t="n">
-        <v>48.11066489667915</v>
+        <v>59.2520109077864</v>
       </c>
       <c r="W20" t="n">
-        <v>64.11021553910194</v>
+        <v>64.64464906028461</v>
       </c>
       <c r="X20" t="n">
-        <v>64.64464906029366</v>
+        <v>64.64464906028461</v>
       </c>
       <c r="Y20" t="n">
-        <v>48.32024273193664</v>
+        <v>48.32024273192991</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="C21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="D21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="E21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="F21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="G21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="H21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="I21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="J21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="K21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="L21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="M21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="N21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="O21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="P21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="R21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="S21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="T21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="U21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="V21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="W21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="X21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="C22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="D22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="E22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="F22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="G22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="H22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="I22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="J22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="K22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="L22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="M22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="N22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="O22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="P22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="R22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="S22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="T22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="U22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="V22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="W22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="X22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.292892981205873</v>
+        <v>1.292892981205692</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.74325420715802</v>
+        <v>70.30019515069044</v>
       </c>
       <c r="C23" t="n">
-        <v>78.79269724932816</v>
+        <v>70.30019515069044</v>
       </c>
       <c r="D23" t="n">
-        <v>109.6624347063006</v>
+        <v>101.1699326076628</v>
       </c>
       <c r="E23" t="n">
-        <v>101.1668087396704</v>
+        <v>92.6743066410327</v>
       </c>
       <c r="F23" t="n">
-        <v>69.67029057114428</v>
+        <v>61.17778847250662</v>
       </c>
       <c r="G23" t="n">
-        <v>38.17377240261815</v>
+        <v>29.68127030398052</v>
       </c>
       <c r="H23" t="n">
-        <v>10.9870263375848</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I23" t="n">
-        <v>10.9870263375848</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J23" t="n">
-        <v>10.9870263375848</v>
+        <v>33.36426169591963</v>
       </c>
       <c r="K23" t="n">
-        <v>10.9870263375848</v>
+        <v>33.36426169591963</v>
       </c>
       <c r="L23" t="n">
-        <v>2.49452423894727</v>
+        <v>24.87175959728201</v>
       </c>
       <c r="M23" t="n">
-        <v>2.49452423894727</v>
+        <v>24.87175959728201</v>
       </c>
       <c r="N23" t="n">
-        <v>8.388167151289394</v>
+        <v>30.765402509624</v>
       </c>
       <c r="O23" t="n">
-        <v>8.388167151289394</v>
+        <v>33.63016579657059</v>
       </c>
       <c r="P23" t="n">
-        <v>4.568006372635111</v>
+        <v>29.81000501791655</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.246830786720935</v>
+        <v>33.48882943200228</v>
       </c>
       <c r="R23" t="n">
-        <v>8.246830786720935</v>
+        <v>39.22631536107635</v>
       </c>
       <c r="S23" t="n">
-        <v>36.43909834914264</v>
+        <v>39.22631536107635</v>
       </c>
       <c r="T23" t="n">
-        <v>67.3088358061151</v>
+        <v>70.09605281804875</v>
       </c>
       <c r="U23" t="n">
-        <v>98.17857326308757</v>
+        <v>70.09605281804875</v>
       </c>
       <c r="V23" t="n">
-        <v>98.17857326308757</v>
+        <v>87.39968946721177</v>
       </c>
       <c r="W23" t="n">
-        <v>124.7262119473635</v>
+        <v>113.9473281514877</v>
       </c>
       <c r="X23" t="n">
-        <v>124.7262119473635</v>
+        <v>116.2831528908968</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.2296937788373</v>
+        <v>84.78663472236966</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.74325420715897</v>
+        <v>78.74325420715797</v>
       </c>
       <c r="C26" t="n">
-        <v>99.88991578201504</v>
+        <v>99.88991578201404</v>
       </c>
       <c r="D26" t="n">
         <v>101.1699326076628</v>
       </c>
       <c r="E26" t="n">
-        <v>92.67430664103276</v>
+        <v>92.67430664103267</v>
       </c>
       <c r="F26" t="n">
-        <v>61.17778847250662</v>
+        <v>61.17778847250659</v>
       </c>
       <c r="G26" t="n">
-        <v>29.68127030398047</v>
+        <v>29.68127030398052</v>
       </c>
       <c r="H26" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00625129492714</v>
+        <v>12.00625129492723</v>
       </c>
       <c r="J26" t="n">
-        <v>12.00625129492714</v>
+        <v>42.87598875189956</v>
       </c>
       <c r="K26" t="n">
-        <v>22.97280252970091</v>
+        <v>42.87598875189956</v>
       </c>
       <c r="L26" t="n">
-        <v>14.48030043106348</v>
+        <v>34.38348665326195</v>
       </c>
       <c r="M26" t="n">
-        <v>18.32220122620487</v>
+        <v>34.38348665326195</v>
       </c>
       <c r="N26" t="n">
-        <v>18.32220122620487</v>
+        <v>34.38348665326195</v>
       </c>
       <c r="O26" t="n">
-        <v>21.18696451315168</v>
+        <v>34.38348665326195</v>
       </c>
       <c r="P26" t="n">
-        <v>17.36680373449777</v>
+        <v>30.56332587460787</v>
       </c>
       <c r="Q26" t="n">
-        <v>17.36680373449777</v>
+        <v>34.24215028869378</v>
       </c>
       <c r="R26" t="n">
-        <v>23.10428966357188</v>
+        <v>34.24215028869378</v>
       </c>
       <c r="S26" t="n">
-        <v>34.10327360973341</v>
+        <v>62.98673703341845</v>
       </c>
       <c r="T26" t="n">
-        <v>64.97301106670587</v>
+        <v>62.98673703341845</v>
       </c>
       <c r="U26" t="n">
-        <v>64.97301106670587</v>
+        <v>93.85647449039085</v>
       </c>
       <c r="V26" t="n">
-        <v>95.84274852367832</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="W26" t="n">
-        <v>122.3903872079543</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="X26" t="n">
-        <v>124.7262119473635</v>
+        <v>124.7262119473633</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.22969377883814</v>
+        <v>93.2296937788372</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.30019515069039</v>
+        <v>67.80752183839795</v>
       </c>
       <c r="C29" t="n">
-        <v>70.30019515069039</v>
+        <v>88.95418341325401</v>
       </c>
       <c r="D29" t="n">
-        <v>101.1699326076628</v>
+        <v>101.1699326076627</v>
       </c>
       <c r="E29" t="n">
-        <v>92.67430664103276</v>
+        <v>92.67430664103262</v>
       </c>
       <c r="F29" t="n">
-        <v>61.17778847250661</v>
+        <v>61.17778847250653</v>
       </c>
       <c r="G29" t="n">
-        <v>29.68127030398047</v>
+        <v>29.68127030398046</v>
       </c>
       <c r="H29" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I29" t="n">
-        <v>12.00625129492727</v>
+        <v>12.00625129492719</v>
       </c>
       <c r="J29" t="n">
-        <v>12.00625129492727</v>
+        <v>12.00625129492719</v>
       </c>
       <c r="K29" t="n">
-        <v>22.97280252970106</v>
+        <v>12.00625129492719</v>
       </c>
       <c r="L29" t="n">
-        <v>14.48030043106363</v>
+        <v>3.513749196289639</v>
       </c>
       <c r="M29" t="n">
-        <v>18.32220122620502</v>
+        <v>7.355649991430854</v>
       </c>
       <c r="N29" t="n">
-        <v>24.21584413854761</v>
+        <v>13.24929290377291</v>
       </c>
       <c r="O29" t="n">
-        <v>24.21584413854761</v>
+        <v>13.24929290377291</v>
       </c>
       <c r="P29" t="n">
-        <v>20.3956833598937</v>
+        <v>9.429132125118885</v>
       </c>
       <c r="Q29" t="n">
-        <v>24.07450777397961</v>
+        <v>13.10795653920471</v>
       </c>
       <c r="R29" t="n">
-        <v>24.07450777397961</v>
+        <v>18.84544246827883</v>
       </c>
       <c r="S29" t="n">
-        <v>54.94424523095208</v>
+        <v>18.84544246827883</v>
       </c>
       <c r="T29" t="n">
-        <v>54.94424523095208</v>
+        <v>49.71517992525123</v>
       </c>
       <c r="U29" t="n">
-        <v>85.81398268792454</v>
+        <v>80.58491738222364</v>
       </c>
       <c r="V29" t="n">
-        <v>113.947328151487</v>
+        <v>111.454654839194</v>
       </c>
       <c r="W29" t="n">
-        <v>113.947328151487</v>
+        <v>111.454654839194</v>
       </c>
       <c r="X29" t="n">
-        <v>116.2831528908956</v>
+        <v>113.7904795786031</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.78663472236956</v>
+        <v>82.29396141007712</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="C31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="D31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="E31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="F31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="G31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="H31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="I31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="J31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="K31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="L31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="M31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="N31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="O31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="P31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="R31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="S31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="T31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="U31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="V31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="W31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="X31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.49452423894727</v>
+        <v>2.494524238947265</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.9872177162974</v>
+        <v>133.1132093643833</v>
       </c>
       <c r="C32" t="n">
-        <v>133.1132093643831</v>
+        <v>133.1132093643833</v>
       </c>
       <c r="D32" t="n">
-        <v>133.1132093643831</v>
+        <v>133.1132093643833</v>
       </c>
       <c r="E32" t="n">
-        <v>125.6167978383505</v>
+        <v>125.6167978383508</v>
       </c>
       <c r="F32" t="n">
-        <v>77.7958733414696</v>
+        <v>77.79587334146972</v>
       </c>
       <c r="G32" t="n">
-        <v>29.97494884458871</v>
+        <v>29.97494884458861</v>
       </c>
       <c r="H32" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="I32" t="n">
-        <v>14.27847434936261</v>
+        <v>14.27847434936275</v>
       </c>
       <c r="J32" t="n">
-        <v>61.14776244875557</v>
+        <v>61.14776244875592</v>
       </c>
       <c r="K32" t="n">
-        <v>73.09364375675894</v>
+        <v>73.09364375675923</v>
       </c>
       <c r="L32" t="n">
-        <v>65.60035609871896</v>
+        <v>65.60035609871933</v>
       </c>
       <c r="M32" t="n">
-        <v>70.42158696708988</v>
+        <v>67.48973271696168</v>
       </c>
       <c r="N32" t="n">
-        <v>70.42158696708988</v>
+        <v>74.36270570253342</v>
       </c>
       <c r="O32" t="n">
-        <v>70.42158696708988</v>
+        <v>78.20679906270978</v>
       </c>
       <c r="P32" t="n">
-        <v>67.60064062903346</v>
+        <v>75.38585272465333</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.60064062903346</v>
+        <v>80.0440072119691</v>
       </c>
       <c r="R32" t="n">
-        <v>67.60064062903346</v>
+        <v>80.0440072119691</v>
       </c>
       <c r="S32" t="n">
-        <v>104.7873036632774</v>
+        <v>126.9132953113623</v>
       </c>
       <c r="T32" t="n">
-        <v>151.6565917626704</v>
+        <v>126.9132953113623</v>
       </c>
       <c r="U32" t="n">
-        <v>151.6565917626704</v>
+        <v>173.7825834107554</v>
       </c>
       <c r="V32" t="n">
-        <v>151.6565917626704</v>
+        <v>173.7825834107554</v>
       </c>
       <c r="W32" t="n">
-        <v>151.6565917626704</v>
+        <v>173.7825834107554</v>
       </c>
       <c r="X32" t="n">
-        <v>154.9717465753091</v>
+        <v>177.0977382233943</v>
       </c>
       <c r="Y32" t="n">
-        <v>124.4744428473791</v>
+        <v>146.6004344954649</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="C33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="D33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="E33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="F33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="G33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="H33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="I33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="J33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="K33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="L33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="M33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="N33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="O33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="P33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="R33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="S33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="T33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="U33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="V33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="W33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="X33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="C34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="D34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="E34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="F34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="G34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="H34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="I34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="J34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="K34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="L34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="M34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="N34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="O34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="P34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="R34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="S34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="T34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="U34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="V34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="W34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="X34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.787417220152967</v>
+        <v>3.787417220152984</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105.5685624842254</v>
+        <v>105.5685624842253</v>
       </c>
       <c r="C35" t="n">
-        <v>112.2068692920998</v>
+        <v>105.5685624842253</v>
       </c>
       <c r="D35" t="n">
-        <v>112.2068692920998</v>
+        <v>112.2068692920982</v>
       </c>
       <c r="E35" t="n">
-        <v>104.7104577660668</v>
+        <v>104.7104577660656</v>
       </c>
       <c r="F35" t="n">
-        <v>66.94452560868382</v>
+        <v>66.94452560868299</v>
       </c>
       <c r="G35" t="n">
-        <v>29.17859345130088</v>
+        <v>29.17859345130034</v>
       </c>
       <c r="H35" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="I35" t="n">
-        <v>2.99106182686473</v>
+        <v>13.48211895607441</v>
       </c>
       <c r="J35" t="n">
-        <v>28.62265906287128</v>
+        <v>50.49650906352515</v>
       </c>
       <c r="K35" t="n">
-        <v>40.56854037087423</v>
+        <v>62.4423903715285</v>
       </c>
       <c r="L35" t="n">
-        <v>33.07525271283388</v>
+        <v>54.94910271348851</v>
       </c>
       <c r="M35" t="n">
-        <v>33.07525271283388</v>
+        <v>59.77033358185947</v>
       </c>
       <c r="N35" t="n">
-        <v>33.07525271283388</v>
+        <v>59.77033358185947</v>
       </c>
       <c r="O35" t="n">
-        <v>36.9193460730099</v>
+        <v>59.77033358185947</v>
       </c>
       <c r="P35" t="n">
-        <v>34.09839973495308</v>
+        <v>56.94938724380303</v>
       </c>
       <c r="Q35" t="n">
-        <v>38.75655422226818</v>
+        <v>56.94938724380303</v>
       </c>
       <c r="R35" t="n">
-        <v>45.47337022457156</v>
+        <v>56.94938724380303</v>
       </c>
       <c r="S35" t="n">
-        <v>82.48776033202259</v>
+        <v>93.96377735125377</v>
       </c>
       <c r="T35" t="n">
-        <v>82.48776033202259</v>
+        <v>93.96377735125377</v>
       </c>
       <c r="U35" t="n">
-        <v>82.48776033202259</v>
+        <v>130.9781674587045</v>
       </c>
       <c r="V35" t="n">
-        <v>118.7109677730929</v>
+        <v>130.9781674587045</v>
       </c>
       <c r="W35" t="n">
-        <v>146.2379365305981</v>
+        <v>149.5530913432353</v>
       </c>
       <c r="X35" t="n">
-        <v>149.5530913432365</v>
+        <v>149.5530913432353</v>
       </c>
       <c r="Y35" t="n">
-        <v>119.0557876153075</v>
+        <v>119.0557876153069</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="C36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="D36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="E36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="F36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="G36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="H36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="I36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="J36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="K36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="L36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="M36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="N36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="O36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="P36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="R36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="S36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="T36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="U36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="V36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="W36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="X36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="C37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="D37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="E37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="F37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="G37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="H37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="I37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="J37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="K37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="L37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="M37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="N37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="O37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="P37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="R37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="S37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="T37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="U37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="V37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="W37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="X37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.99106182686473</v>
+        <v>2.991061826864706</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>76.42340830312511</v>
+        <v>91.91502357700264</v>
       </c>
       <c r="C38" t="n">
-        <v>76.42340830312511</v>
+        <v>113.4377984105779</v>
       </c>
       <c r="D38" t="n">
-        <v>113.4377984105769</v>
+        <v>113.4377984105779</v>
       </c>
       <c r="E38" t="n">
-        <v>105.325922325305</v>
+        <v>105.325922325306</v>
       </c>
       <c r="F38" t="n">
-        <v>67.55999016792238</v>
+        <v>67.55999016792288</v>
       </c>
       <c r="G38" t="n">
-        <v>29.79405801053977</v>
+        <v>29.79405801053976</v>
       </c>
       <c r="H38" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="I38" t="n">
-        <v>2.991061826864702</v>
+        <v>12.87890214156393</v>
       </c>
       <c r="J38" t="n">
-        <v>23.45506812052857</v>
+        <v>49.89329224901513</v>
       </c>
       <c r="K38" t="n">
-        <v>23.45506812052857</v>
+        <v>61.2359567425078</v>
       </c>
       <c r="L38" t="n">
-        <v>15.34631590324934</v>
+        <v>53.12720452522842</v>
       </c>
       <c r="M38" t="n">
-        <v>19.56432995710986</v>
+        <v>57.34521857908879</v>
       </c>
       <c r="N38" t="n">
-        <v>19.56432995710986</v>
+        <v>63.61497475015</v>
       </c>
       <c r="O38" t="n">
-        <v>22.80520650277577</v>
+        <v>66.8558512958158</v>
       </c>
       <c r="P38" t="n">
-        <v>19.36879560547976</v>
+        <v>63.41944039852007</v>
       </c>
       <c r="Q38" t="n">
-        <v>19.36879560547976</v>
+        <v>67.47437807132505</v>
       </c>
       <c r="R38" t="n">
-        <v>19.36879560547976</v>
+        <v>73.58797725911836</v>
       </c>
       <c r="S38" t="n">
-        <v>19.36879560547976</v>
+        <v>100.1160914470375</v>
       </c>
       <c r="T38" t="n">
-        <v>56.38318571293044</v>
+        <v>137.1304815544914</v>
       </c>
       <c r="U38" t="n">
-        <v>56.38318571293044</v>
+        <v>137.1304815544914</v>
       </c>
       <c r="V38" t="n">
-        <v>92.00317633949064</v>
+        <v>137.1304815544914</v>
       </c>
       <c r="W38" t="n">
-        <v>118.9269282824858</v>
+        <v>137.1304815544914</v>
       </c>
       <c r="X38" t="n">
-        <v>121.638866280614</v>
+        <v>137.1304815544914</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.52609799344614</v>
+        <v>106.0177132673236</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="C39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="D39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="E39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="F39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="G39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="H39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="I39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="J39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="K39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="L39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="M39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="N39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="O39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="P39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="R39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="S39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="T39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="U39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="V39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="W39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="X39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="C40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="D40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="E40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="F40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="G40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="H40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="I40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="J40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="K40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="L40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="M40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="N40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="O40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="P40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="R40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="S40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="T40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="U40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="V40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="W40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="X40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.991061826864702</v>
+        <v>2.991061826864743</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.74325420715797</v>
+        <v>78.74325420715809</v>
       </c>
       <c r="C41" t="n">
-        <v>99.88991578201393</v>
+        <v>99.88991578201404</v>
       </c>
       <c r="D41" t="n">
-        <v>101.1699326076632</v>
+        <v>101.1699326076631</v>
       </c>
       <c r="E41" t="n">
-        <v>92.67430664103286</v>
+        <v>92.6743066410329</v>
       </c>
       <c r="F41" t="n">
-        <v>61.17778847250672</v>
+        <v>61.17778847250676</v>
       </c>
       <c r="G41" t="n">
-        <v>29.68127030398058</v>
+        <v>29.68127030398063</v>
       </c>
       <c r="H41" t="n">
         <v>2.49452423894727</v>
       </c>
       <c r="I41" t="n">
-        <v>12.00625129492712</v>
+        <v>12.00625129492717</v>
       </c>
       <c r="J41" t="n">
-        <v>12.00625129492712</v>
+        <v>17.34013679371672</v>
       </c>
       <c r="K41" t="n">
-        <v>12.00625129492712</v>
+        <v>28.30668802849034</v>
       </c>
       <c r="L41" t="n">
-        <v>3.513749196289552</v>
+        <v>19.81418592985278</v>
       </c>
       <c r="M41" t="n">
-        <v>7.355649991430807</v>
+        <v>23.65608672499395</v>
       </c>
       <c r="N41" t="n">
-        <v>7.355649991430807</v>
+        <v>23.65608672499395</v>
       </c>
       <c r="O41" t="n">
-        <v>10.22041327837724</v>
+        <v>26.52085001194064</v>
       </c>
       <c r="P41" t="n">
-        <v>6.400252499723081</v>
+        <v>22.7006892332866</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.400252499723081</v>
+        <v>26.37951364737236</v>
       </c>
       <c r="R41" t="n">
-        <v>6.400252499723081</v>
+        <v>32.1169995764461</v>
       </c>
       <c r="S41" t="n">
-        <v>6.400252499723081</v>
+        <v>62.98673703341856</v>
       </c>
       <c r="T41" t="n">
-        <v>36.43909834914263</v>
+        <v>93.85647449039102</v>
       </c>
       <c r="U41" t="n">
-        <v>67.30883580611511</v>
+        <v>124.7262119473635</v>
       </c>
       <c r="V41" t="n">
-        <v>98.17857326308757</v>
+        <v>124.7262119473635</v>
       </c>
       <c r="W41" t="n">
         <v>124.7262119473635</v>
@@ -7454,7 +7454,7 @@
         <v>124.7262119473635</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.22969377883726</v>
+        <v>93.22969377883737</v>
       </c>
     </row>
     <row r="42">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.55833138813279</v>
+        <v>78.74325420715834</v>
       </c>
       <c r="C44" t="n">
-        <v>89.70499296298863</v>
+        <v>78.79269724932792</v>
       </c>
       <c r="D44" t="n">
-        <v>101.1699326076603</v>
+        <v>109.6624347063002</v>
       </c>
       <c r="E44" t="n">
-        <v>92.67430664102994</v>
+        <v>101.1668087396701</v>
       </c>
       <c r="F44" t="n">
-        <v>61.17778847250527</v>
+        <v>69.67029057114411</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6812703039806</v>
+        <v>38.17377240261813</v>
       </c>
       <c r="H44" t="n">
-        <v>2.494524238947154</v>
+        <v>10.98702633758487</v>
       </c>
       <c r="I44" t="n">
-        <v>12.00625129492692</v>
+        <v>10.98702633758487</v>
       </c>
       <c r="J44" t="n">
-        <v>42.87598875189795</v>
+        <v>10.98702633758487</v>
       </c>
       <c r="K44" t="n">
-        <v>53.84253998667151</v>
+        <v>10.98702633758487</v>
       </c>
       <c r="L44" t="n">
-        <v>45.35003788803385</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M44" t="n">
-        <v>49.191938683175</v>
+        <v>6.336425034088455</v>
       </c>
       <c r="N44" t="n">
-        <v>49.191938683175</v>
+        <v>6.336425034088455</v>
       </c>
       <c r="O44" t="n">
-        <v>49.191938683175</v>
+        <v>6.336425034088455</v>
       </c>
       <c r="P44" t="n">
-        <v>45.37177790452088</v>
+        <v>2.516264255434294</v>
       </c>
       <c r="Q44" t="n">
-        <v>49.05060231860659</v>
+        <v>6.195088669520032</v>
       </c>
       <c r="R44" t="n">
-        <v>54.78808824768055</v>
+        <v>6.195088669520032</v>
       </c>
       <c r="S44" t="n">
-        <v>54.78808824768055</v>
+        <v>6.195088669520032</v>
       </c>
       <c r="T44" t="n">
-        <v>85.65782570465157</v>
+        <v>37.06482612649233</v>
       </c>
       <c r="U44" t="n">
-        <v>85.65782570465157</v>
+        <v>67.93456358346464</v>
       </c>
       <c r="V44" t="n">
-        <v>85.65782570465157</v>
+        <v>98.80430104043688</v>
       </c>
       <c r="W44" t="n">
-        <v>112.2054643889274</v>
+        <v>124.7262119473628</v>
       </c>
       <c r="X44" t="n">
-        <v>114.5412891283363</v>
+        <v>124.7262119473628</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.04477095981218</v>
+        <v>93.22969377883757</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="C45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="D45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="E45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="F45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="G45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="H45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="K45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="L45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="N45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="O45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="P45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="R45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="S45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="T45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="U45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="V45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="W45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="X45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="C46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="D46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="E46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="F46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="G46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="H46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="K46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="L46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="N46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="O46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="P46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="R46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="S46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="T46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="U46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="V46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="W46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="X46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.494524238947154</v>
+        <v>2.494524238947256</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.429181277646292</v>
+        <v>7.429181277645618</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.763661741898916</v>
+        <v>1.498275808647058</v>
       </c>
       <c r="F11" t="n">
-        <v>45.69015008300555</v>
+        <v>45.69015008300487</v>
       </c>
       <c r="G11" t="n">
-        <v>75.56587631559334</v>
+        <v>77.83126224884376</v>
       </c>
       <c r="H11" t="n">
-        <v>20.0024847060668</v>
+        <v>20.00248470606612</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.495183179334942</v>
+        <v>1.49518317933444</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.26915908852469</v>
+        <v>24.26915908852401</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.429181277645949</v>
+        <v>7.429181277646251</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.08103215280782</v>
+        <v>3.763661741898874</v>
       </c>
       <c r="F14" t="n">
-        <v>45.69015008300521</v>
+        <v>45.69015008300551</v>
       </c>
       <c r="G14" t="n">
-        <v>75.565876315593</v>
+        <v>75.5658763155933</v>
       </c>
       <c r="H14" t="n">
-        <v>20.00248470606645</v>
+        <v>20.00248470606675</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4951831793346</v>
+        <v>1.495183179335072</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6826295890907659</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.26915908852434</v>
+        <v>24.26915908852465</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>38.26096880535675</v>
+        <v>38.26096880535941</v>
       </c>
       <c r="G20" t="n">
-        <v>68.13669503794455</v>
+        <v>68.13669503794721</v>
       </c>
       <c r="H20" t="n">
-        <v>12.573303428418</v>
+        <v>12.57330342842066</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.83997781087589</v>
+        <v>16.83997781087855</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.42099099448075</v>
+        <v>21.42099099448086</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29671722706854</v>
+        <v>51.29671722706865</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.42099099448075</v>
+        <v>21.4209909944808</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29671722706854</v>
+        <v>51.2967172270686</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.270606433218049</v>
+        <v>4.270606433217722</v>
       </c>
       <c r="G32" t="n">
-        <v>34.14633266580584</v>
+        <v>34.14633266580552</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.22504884932141</v>
+        <v>14.22504884932118</v>
       </c>
       <c r="G35" t="n">
-        <v>44.10077508190921</v>
+        <v>44.10077508190898</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.8343587629683</v>
+        <v>14.83435876296772</v>
       </c>
       <c r="G38" t="n">
-        <v>44.71008499555609</v>
+        <v>44.71008499555552</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.42099099448242</v>
+        <v>21.42099099448097</v>
       </c>
       <c r="G44" t="n">
-        <v>51.29671722707022</v>
+        <v>51.29671722706876</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>1.06581410364015e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1111826.531103053</v>
+        <v>1111826.531103052</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>623119.5241814097</v>
+        <v>623119.52418141</v>
       </c>
       <c r="C2" t="n">
-        <v>623119.5241814096</v>
+        <v>623119.5241814095</v>
       </c>
       <c r="D2" t="n">
         <v>623119.5241814096</v>
       </c>
       <c r="E2" t="n">
-        <v>615571.7697907157</v>
+        <v>615571.7697907161</v>
       </c>
       <c r="F2" t="n">
-        <v>615571.7697907161</v>
+        <v>615571.7697907159</v>
       </c>
       <c r="G2" t="n">
-        <v>617681.4061683618</v>
+        <v>617681.4061683619</v>
       </c>
       <c r="H2" t="n">
-        <v>617681.4061683624</v>
+        <v>617681.406168362</v>
       </c>
       <c r="I2" t="n">
+        <v>620820.2947021993</v>
+      </c>
+      <c r="J2" t="n">
         <v>620820.2947021992</v>
       </c>
-      <c r="J2" t="n">
-        <v>620820.2947021993</v>
-      </c>
       <c r="K2" t="n">
-        <v>620820.2947021993</v>
+        <v>620820.2947021994</v>
       </c>
       <c r="L2" t="n">
-        <v>622526.7579660451</v>
+        <v>622526.7579660449</v>
       </c>
       <c r="M2" t="n">
         <v>621536.2909456427</v>
       </c>
       <c r="N2" t="n">
-        <v>621475.6646092349</v>
+        <v>621475.664609235</v>
       </c>
       <c r="O2" t="n">
         <v>620820.2947021989</v>
       </c>
       <c r="P2" t="n">
-        <v>620820.2947021989</v>
+        <v>620820.2947021993</v>
       </c>
     </row>
     <row r="3">
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2679.137952746787</v>
+        <v>2679.137952746834</v>
       </c>
       <c r="H3" t="n">
-        <v>8.55649318509677e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5449.906992409874</v>
+        <v>5449.906992410824</v>
       </c>
       <c r="J3" t="n">
         <v>272628.8078174961</v>
       </c>
       <c r="K3" t="n">
-        <v>8.059175560388277e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5859.591698724729</v>
+        <v>5859.591698724842</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>545257.9913624501</v>
+        <v>545257.9913624503</v>
       </c>
       <c r="F4" t="n">
         <v>545257.9913624502</v>
@@ -26433,13 +26433,13 @@
         <v>547217.7714817042</v>
       </c>
       <c r="H4" t="n">
-        <v>547217.7714817047</v>
+        <v>547217.7714817041</v>
       </c>
       <c r="I4" t="n">
-        <v>550134.9769296524</v>
+        <v>550134.9769296525</v>
       </c>
       <c r="J4" t="n">
-        <v>550134.9769296523</v>
+        <v>550134.9769296525</v>
       </c>
       <c r="K4" t="n">
         <v>550134.9769296525</v>
@@ -26454,10 +26454,10 @@
         <v>550744.0615284252</v>
       </c>
       <c r="O4" t="n">
-        <v>550134.9769296524</v>
+        <v>550134.9769296525</v>
       </c>
       <c r="P4" t="n">
-        <v>550134.9769296522</v>
+        <v>550134.9769296525</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>30316.06528626089</v>
+      </c>
+      <c r="F5" t="n">
         <v>30316.06528626085</v>
       </c>
-      <c r="F5" t="n">
-        <v>30316.06528626087</v>
-      </c>
       <c r="G5" t="n">
-        <v>30796.20496292566</v>
+        <v>30796.20496292564</v>
       </c>
       <c r="H5" t="n">
-        <v>30796.20496292582</v>
+        <v>30796.20496292564</v>
       </c>
       <c r="I5" t="n">
         <v>31862.41558580353</v>
       </c>
       <c r="J5" t="n">
-        <v>31862.41558580354</v>
+        <v>31862.41558580353</v>
       </c>
       <c r="K5" t="n">
-        <v>31862.41558580354</v>
+        <v>31862.41558580353</v>
       </c>
       <c r="L5" t="n">
-        <v>32928.17718073839</v>
+        <v>32928.17718073841</v>
       </c>
       <c r="M5" t="n">
-        <v>32322.9470818393</v>
+        <v>32322.94708183932</v>
       </c>
       <c r="N5" t="n">
-        <v>32271.72300670893</v>
+        <v>32271.72300670896</v>
       </c>
       <c r="O5" t="n">
         <v>31862.41558580353</v>
       </c>
       <c r="P5" t="n">
-        <v>31862.41558580344</v>
+        <v>31862.41558580352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20442.15050707359</v>
+        <v>20436.87660105458</v>
       </c>
       <c r="C6" t="n">
-        <v>20442.15050707348</v>
+        <v>20436.87660105411</v>
       </c>
       <c r="D6" t="n">
-        <v>20442.15050707348</v>
+        <v>20436.87660105423</v>
       </c>
       <c r="E6" t="n">
-        <v>-274715.5885234381</v>
+        <v>-274751.0534470201</v>
       </c>
       <c r="F6" t="n">
-        <v>39997.71314200507</v>
+        <v>39962.24821842307</v>
       </c>
       <c r="G6" t="n">
-        <v>36988.2917709851</v>
+        <v>36961.26539291379</v>
       </c>
       <c r="H6" t="n">
-        <v>39667.42972373106</v>
+        <v>39640.40334566085</v>
       </c>
       <c r="I6" t="n">
-        <v>33372.9951943334</v>
+        <v>33358.52437039639</v>
       </c>
       <c r="J6" t="n">
-        <v>-233805.9056307526</v>
+        <v>-233820.376454689</v>
       </c>
       <c r="K6" t="n">
-        <v>38822.90218674312</v>
+        <v>38808.43136280739</v>
       </c>
       <c r="L6" t="n">
-        <v>32018.06736266558</v>
+        <v>32010.42239178462</v>
       </c>
       <c r="M6" t="n">
-        <v>38417.73452060322</v>
+        <v>38406.12768164089</v>
       </c>
       <c r="N6" t="n">
-        <v>37491.6583337312</v>
+        <v>37479.80898942334</v>
       </c>
       <c r="O6" t="n">
-        <v>-233501.9757247173</v>
+        <v>-233516.4465486535</v>
       </c>
       <c r="P6" t="n">
-        <v>38822.90218674335</v>
+        <v>38808.43136280717</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="F2" t="n">
         <v>340.7860097718699</v>
@@ -26701,10 +26701,10 @@
         <v>342.0084712005479</v>
       </c>
       <c r="H2" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="I2" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="J2" t="n">
         <v>343.8280582896568</v>
@@ -26713,10 +26713,10 @@
         <v>343.8280582896568</v>
       </c>
       <c r="L2" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="M2" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="N2" t="n">
         <v>344.2079706722014</v>
@@ -26725,7 +26725,7 @@
         <v>343.8280582896567</v>
       </c>
       <c r="P2" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="F3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="G3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="H3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="I3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="J3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="K3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="L3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="M3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="N3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="O3" t="n">
         <v>48.68330880047954</v>
       </c>
       <c r="P3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="F4" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="G4" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="H4" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="I4" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="J4" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="K4" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="L4" t="n">
-        <v>47.34271525191208</v>
+        <v>47.3427152519123</v>
       </c>
       <c r="M4" t="n">
-        <v>37.38827283580912</v>
+        <v>37.38827283580883</v>
       </c>
       <c r="N4" t="n">
-        <v>37.38827283580877</v>
+        <v>37.38827283580929</v>
       </c>
       <c r="O4" t="n">
         <v>31.18155298684087</v>
       </c>
       <c r="P4" t="n">
-        <v>31.18155298683942</v>
+        <v>31.18155298684071</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.222461428678002</v>
+        <v>1.222461428677946</v>
       </c>
       <c r="H2" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.819587089108438</v>
+        <v>1.819587089108893</v>
       </c>
       <c r="J2" t="n">
         <v>340.7860097718701</v>
       </c>
       <c r="K2" t="n">
-        <v>1.007396945048535e-13</v>
+        <v>-3.68636872704554e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.211683724869488</v>
+        <v>2.211683724869545</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.68330880047961</v>
+        <v>48.68330880047938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.618527782440651e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>6.206719848967964</v>
+        <v>6.206719848968305</v>
       </c>
       <c r="H4" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.02039072176746</v>
+        <v>15.02039072176966</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.16116226507121</v>
+        <v>16.16116226507148</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.222461428678002</v>
+        <v>1.222461428677946</v>
       </c>
       <c r="M2" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.819587089108438</v>
+        <v>1.819587089108893</v>
       </c>
       <c r="O2" t="n">
         <v>340.7860097718701</v>
       </c>
       <c r="P2" t="n">
-        <v>1.007396945048535e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.206719848967964</v>
+        <v>6.206719848968305</v>
       </c>
       <c r="P4" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="C11" t="n">
-        <v>332.4222364887334</v>
+        <v>332.4222364887339</v>
       </c>
       <c r="D11" t="n">
-        <v>316.5952056889004</v>
+        <v>316.5952056889009</v>
       </c>
       <c r="E11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="F11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="G11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="H11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="I11" t="n">
-        <v>340.7860097718699</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J11" t="n">
-        <v>282.6333789886165</v>
+        <v>287.5432433812966</v>
       </c>
       <c r="K11" t="n">
-        <v>340.7860097718699</v>
+        <v>336.3169867994086</v>
       </c>
       <c r="L11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="M11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="N11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="O11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="P11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="R11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="S11" t="n">
-        <v>293.3926760602885</v>
+        <v>293.392676060289</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5074303779147</v>
+        <v>231.6323455469612</v>
       </c>
       <c r="U11" t="n">
-        <v>257.9816716627076</v>
+        <v>257.9816716627082</v>
       </c>
       <c r="V11" t="n">
-        <v>318.1826245766273</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>326.9667040549764</v>
       </c>
       <c r="X11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.7860097718699</v>
+        <v>340.7860097718701</v>
       </c>
     </row>
     <row r="12">
@@ -28190,31 +28190,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J12" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K12" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L12" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M12" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N12" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O12" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P12" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R12" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S12" t="n">
         <v>237.7770650891449</v>
@@ -28272,7 +28272,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L13" t="n">
         <v>206.1356836763066</v>
@@ -28281,10 +28281,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O13" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P13" t="n">
         <v>213.1902567391832</v>
@@ -28293,7 +28293,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R13" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S13" t="n">
         <v>263.9664420901331</v>
@@ -28327,10 +28327,10 @@
         <v>340.7860097718699</v>
       </c>
       <c r="C14" t="n">
-        <v>332.4222364887337</v>
+        <v>332.4222364887335</v>
       </c>
       <c r="D14" t="n">
-        <v>316.5952056889007</v>
+        <v>316.5952056889004</v>
       </c>
       <c r="E14" t="n">
         <v>340.7860097718699</v>
@@ -28348,19 +28348,19 @@
         <v>340.7860097718699</v>
       </c>
       <c r="J14" t="n">
-        <v>279.4195899607159</v>
+        <v>287.5432433812962</v>
       </c>
       <c r="K14" t="n">
-        <v>340.7860097718699</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L14" t="n">
         <v>340.7860097718699</v>
       </c>
       <c r="M14" t="n">
+        <v>339.9473504157768</v>
+      </c>
+      <c r="N14" t="n">
         <v>340.7860097718699</v>
-      </c>
-      <c r="N14" t="n">
-        <v>337.8748836307253</v>
       </c>
       <c r="O14" t="n">
         <v>340.7860097718699</v>
@@ -28372,22 +28372,22 @@
         <v>340.7860097718699</v>
       </c>
       <c r="R14" t="n">
-        <v>340.7860097718699</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S14" t="n">
         <v>283.4382336441855</v>
       </c>
       <c r="T14" t="n">
-        <v>235.4618727940181</v>
+        <v>235.4618727940178</v>
       </c>
       <c r="U14" t="n">
-        <v>257.981671662708</v>
+        <v>257.9816716627077</v>
       </c>
       <c r="V14" t="n">
-        <v>314.353097329571</v>
+        <v>314.9456449003334</v>
       </c>
       <c r="W14" t="n">
-        <v>326.9667040549762</v>
+        <v>326.9667040549759</v>
       </c>
       <c r="X14" t="n">
         <v>340.7860097718699</v>
@@ -28427,31 +28427,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J15" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K15" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L15" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M15" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N15" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O15" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P15" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R15" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S15" t="n">
         <v>237.7770650891449</v>
@@ -28509,7 +28509,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K16" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L16" t="n">
         <v>206.1356836763066</v>
@@ -28518,10 +28518,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N16" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O16" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P16" t="n">
         <v>213.1902567391832</v>
@@ -28530,7 +28530,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R16" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S16" t="n">
         <v>263.9664420901331</v>
@@ -28564,7 +28564,7 @@
         <v>342.0084712005479</v>
       </c>
       <c r="C17" t="n">
-        <v>335.1994280560446</v>
+        <v>338.6289563377018</v>
       </c>
       <c r="D17" t="n">
         <v>322.8019255378687</v>
@@ -28582,52 +28582,52 @@
         <v>342.0084712005479</v>
       </c>
       <c r="I17" t="n">
-        <v>342.0084712005479</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7499632302643</v>
+        <v>293.738898329479</v>
       </c>
       <c r="K17" t="n">
-        <v>342.0084712005479</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L17" t="n">
         <v>342.0084712005479</v>
       </c>
       <c r="M17" t="n">
-        <v>342.0084712005479</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N17" t="n">
-        <v>337.8748836307253</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O17" t="n">
-        <v>340.9343579998115</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P17" t="n">
         <v>342.0084712005479</v>
       </c>
       <c r="Q17" t="n">
-        <v>342.0084712005479</v>
+        <v>340.1120740330045</v>
       </c>
       <c r="R17" t="n">
-        <v>342.0084712005479</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S17" t="n">
         <v>299.5993959092568</v>
       </c>
       <c r="T17" t="n">
-        <v>231.6465553105429</v>
+        <v>241.6685926429861</v>
       </c>
       <c r="U17" t="n">
-        <v>248.0272292466047</v>
+        <v>264.188391511676</v>
       </c>
       <c r="V17" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W17" t="n">
-        <v>333.1734239039442</v>
+        <v>329.0909193691526</v>
       </c>
       <c r="X17" t="n">
-        <v>342.0084712005479</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y17" t="n">
         <v>342.0084712005479</v>
@@ -28664,31 +28664,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J18" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K18" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L18" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M18" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O18" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P18" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q18" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R18" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S18" t="n">
         <v>237.7770650891449</v>
@@ -28746,7 +28746,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K19" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L19" t="n">
         <v>206.1356836763066</v>
@@ -28755,10 +28755,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N19" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O19" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P19" t="n">
         <v>213.1902567391832</v>
@@ -28767,7 +28767,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R19" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S19" t="n">
         <v>263.9664420901331</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="C20" t="n">
-        <v>338.6289563377039</v>
+        <v>335.1994280560444</v>
       </c>
       <c r="D20" t="n">
-        <v>319.3723972562083</v>
+        <v>322.8019255378686</v>
       </c>
       <c r="E20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="F20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="G20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="H20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="I20" t="n">
-        <v>334.2202531826063</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="J20" t="n">
-        <v>293.7499632302665</v>
+        <v>293.7499632302643</v>
       </c>
       <c r="K20" t="n">
-        <v>332.7507338100874</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="L20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="M20" t="n">
-        <v>339.9473504157766</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="N20" t="n">
-        <v>337.8748836307253</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="O20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="P20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="Q20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
       <c r="R20" t="n">
-        <v>342.0084712005483</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S20" t="n">
-        <v>299.5993959092589</v>
+        <v>299.5993959092567</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5074303779147</v>
+        <v>241.6685926429859</v>
       </c>
       <c r="U20" t="n">
-        <v>264.1883915116781</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V20" t="n">
-        <v>316.239107820517</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W20" t="n">
-        <v>333.1734239039463</v>
+        <v>322.4593708838206</v>
       </c>
       <c r="X20" t="n">
-        <v>342.0084712005483</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.0084712005483</v>
+        <v>342.0084712005479</v>
       </c>
     </row>
     <row r="21">
@@ -28901,31 +28901,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J21" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K21" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L21" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M21" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N21" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O21" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P21" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q21" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R21" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S21" t="n">
         <v>237.7770650891449</v>
@@ -28983,7 +28983,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K22" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L22" t="n">
         <v>206.1356836763066</v>
@@ -28992,10 +28992,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N22" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O22" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P22" t="n">
         <v>213.1902567391832</v>
@@ -29004,7 +29004,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R22" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S22" t="n">
         <v>263.9664420901331</v>
@@ -29035,76 +29035,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="C23" t="n">
-        <v>322.517736539469</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D23" t="n">
-        <v>337.8223162596383</v>
+        <v>337.8223162596382</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="I23" t="n">
         <v>334.2202531826063</v>
       </c>
       <c r="J23" t="n">
-        <v>277.5888009651931</v>
+        <v>308.770353952034</v>
       </c>
       <c r="K23" t="n">
-        <v>332.7507338100874</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="M23" t="n">
-        <v>339.9473504157766</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="O23" t="n">
-        <v>340.9343579998115</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Q23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="R23" t="n">
-        <v>338.0326179572587</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="S23" t="n">
-        <v>311.9152715860256</v>
+        <v>283.4382336441855</v>
       </c>
       <c r="T23" t="n">
         <v>256.6889833647556</v>
       </c>
       <c r="U23" t="n">
-        <v>279.2087822334456</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>325.7066030182648</v>
       </c>
       <c r="W23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="X23" t="n">
-        <v>341.4686393609607</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8280582896567</v>
+        <v>343.8280582896568</v>
       </c>
     </row>
     <row r="24">
@@ -29138,31 +29138,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J24" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K24" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L24" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M24" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N24" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O24" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P24" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R24" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S24" t="n">
         <v>237.7770650891449</v>
@@ -29220,7 +29220,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K25" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L25" t="n">
         <v>206.1356836763066</v>
@@ -29229,10 +29229,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N25" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O25" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P25" t="n">
         <v>213.1902567391832</v>
@@ -29241,7 +29241,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R25" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S25" t="n">
         <v>263.9664420901331</v>
@@ -29278,7 +29278,7 @@
         <v>343.8280582896568</v>
       </c>
       <c r="D26" t="n">
-        <v>307.9337095613305</v>
+        <v>307.9337095613315</v>
       </c>
       <c r="E26" t="n">
         <v>343.8280582896568</v>
@@ -29296,49 +29296,49 @@
         <v>343.8280582896568</v>
       </c>
       <c r="J26" t="n">
-        <v>277.5888009651931</v>
+        <v>308.770353952034</v>
       </c>
       <c r="K26" t="n">
-        <v>343.8280582896568</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L26" t="n">
         <v>343.8280582896568</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8280582896568</v>
+        <v>339.9473504157768</v>
       </c>
       <c r="N26" t="n">
-        <v>337.8748836307253</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8280582896568</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P26" t="n">
         <v>343.8280582896568</v>
       </c>
       <c r="Q26" t="n">
-        <v>340.1120740330044</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8280582896568</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S26" t="n">
-        <v>294.5483184382874</v>
+        <v>312.473169749968</v>
       </c>
       <c r="T26" t="n">
-        <v>256.6889833647556</v>
+        <v>225.5074303779147</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0272292466047</v>
+        <v>279.2087822334455</v>
       </c>
       <c r="V26" t="n">
-        <v>339.4097351473653</v>
+        <v>339.4097351473652</v>
       </c>
       <c r="W26" t="n">
-        <v>343.8280582896568</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8280582896568</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y26" t="n">
         <v>343.8280582896568</v>
@@ -29375,31 +29375,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J27" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K27" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L27" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M27" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N27" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O27" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P27" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R27" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S27" t="n">
         <v>237.7770650891449</v>
@@ -29457,7 +29457,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K28" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L28" t="n">
         <v>206.1356836763066</v>
@@ -29466,10 +29466,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N28" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O28" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P28" t="n">
         <v>213.1902567391832</v>
@@ -29478,7 +29478,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R28" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S28" t="n">
         <v>263.9664420901331</v>
@@ -29512,10 +29512,10 @@
         <v>343.8280582896568</v>
       </c>
       <c r="C29" t="n">
-        <v>322.4677940726305</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="D29" t="n">
-        <v>337.8223162596383</v>
+        <v>318.9799038732103</v>
       </c>
       <c r="E29" t="n">
         <v>343.8280582896568</v>
@@ -29533,10 +29533,10 @@
         <v>343.8280582896568</v>
       </c>
       <c r="J29" t="n">
-        <v>277.5888009651931</v>
+        <v>277.5888009651932</v>
       </c>
       <c r="K29" t="n">
-        <v>343.8280582896568</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L29" t="n">
         <v>343.8280582896568</v>
@@ -29548,7 +29548,7 @@
         <v>343.8280582896568</v>
       </c>
       <c r="O29" t="n">
-        <v>340.9343579998115</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P29" t="n">
         <v>343.8280582896568</v>
@@ -29557,19 +29557,19 @@
         <v>343.8280582896568</v>
       </c>
       <c r="R29" t="n">
-        <v>338.0326179572587</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="S29" t="n">
-        <v>314.6197866310264</v>
+        <v>283.4382336441855</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5074303779147</v>
+        <v>256.6889833647556</v>
       </c>
       <c r="U29" t="n">
-        <v>279.2087822334456</v>
+        <v>279.2087822334455</v>
       </c>
       <c r="V29" t="n">
-        <v>336.6457028307895</v>
+        <v>339.4097351473652</v>
       </c>
       <c r="W29" t="n">
         <v>317.0122616388729</v>
@@ -29612,31 +29612,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J30" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K30" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L30" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M30" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N30" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O30" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P30" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q30" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R30" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S30" t="n">
         <v>237.7770650891449</v>
@@ -29694,7 +29694,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K31" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L31" t="n">
         <v>206.1356836763066</v>
@@ -29703,10 +29703,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N31" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O31" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P31" t="n">
         <v>213.1902567391832</v>
@@ -29715,7 +29715,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R31" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S31" t="n">
         <v>263.9664420901331</v>
@@ -29746,64 +29746,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="C32" t="n">
-        <v>344.8172805858483</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D32" t="n">
         <v>306.6407632727974</v>
       </c>
       <c r="E32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="F32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="G32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="I32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="J32" t="n">
-        <v>324.9315162171051</v>
+        <v>324.9315162171055</v>
       </c>
       <c r="K32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="L32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="M32" t="n">
-        <v>344.8172805858483</v>
+        <v>341.8558116463246</v>
       </c>
       <c r="N32" t="n">
-        <v>337.8748836307253</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="O32" t="n">
-        <v>340.9343579998115</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="P32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.1120740330044</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="R32" t="n">
         <v>338.0326179572587</v>
       </c>
       <c r="S32" t="n">
-        <v>321.0005195373611</v>
+        <v>330.7809488960978</v>
       </c>
       <c r="T32" t="n">
-        <v>272.8501456298268</v>
+        <v>225.5074303779147</v>
       </c>
       <c r="U32" t="n">
-        <v>248.0272292466047</v>
+        <v>295.369944498517</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
@@ -29812,10 +29812,10 @@
         <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.8172805858483</v>
+        <v>344.8172805858484</v>
       </c>
     </row>
     <row r="33">
@@ -29849,31 +29849,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J33" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K33" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L33" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M33" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N33" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O33" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P33" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R33" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S33" t="n">
         <v>237.7770650891449</v>
@@ -29931,7 +29931,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K34" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L34" t="n">
         <v>206.1356836763066</v>
@@ -29940,10 +29940,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N34" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O34" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P34" t="n">
         <v>213.1902567391832</v>
@@ -29952,7 +29952,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R34" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S34" t="n">
         <v>263.9664420901331</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="C35" t="n">
-        <v>329.1731544846248</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>306.6407632727974</v>
+        <v>313.3461236847903</v>
       </c>
       <c r="E35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="F35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="G35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="I35" t="n">
-        <v>334.2202531826063</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="J35" t="n">
-        <v>303.4793032237855</v>
+        <v>314.977073801002</v>
       </c>
       <c r="K35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="L35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="M35" t="n">
-        <v>339.9473504157766</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="N35" t="n">
-        <v>337.8748836307253</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O35" t="n">
-        <v>344.8172805858479</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
       <c r="Q35" t="n">
-        <v>344.8172805858479</v>
+        <v>340.1120740330045</v>
       </c>
       <c r="R35" t="n">
-        <v>344.8172805858479</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S35" t="n">
-        <v>320.8265064799946</v>
+        <v>320.8265064799944</v>
       </c>
       <c r="T35" t="n">
         <v>225.5074303779147</v>
       </c>
       <c r="U35" t="n">
-        <v>248.0272292466047</v>
+        <v>285.4155020824135</v>
       </c>
       <c r="V35" t="n">
-        <v>344.8172805858479</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>344.8172805858479</v>
+        <v>335.7748110171869</v>
       </c>
       <c r="X35" t="n">
-        <v>344.8172805858479</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.8172805858479</v>
+        <v>344.8172805858484</v>
       </c>
     </row>
     <row r="36">
@@ -30086,31 +30086,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J36" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K36" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L36" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M36" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N36" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O36" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P36" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R36" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S36" t="n">
         <v>237.7770650891449</v>
@@ -30168,7 +30168,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K37" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L37" t="n">
         <v>206.1356836763066</v>
@@ -30177,10 +30177,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N37" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O37" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P37" t="n">
         <v>213.1902567391832</v>
@@ -30189,7 +30189,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R37" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S37" t="n">
         <v>263.9664420901331</v>
@@ -30223,10 +30223,10 @@
         <v>344.2079706722014</v>
       </c>
       <c r="C38" t="n">
-        <v>322.4677940726305</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="D38" t="n">
-        <v>344.0290361086062</v>
+        <v>306.6407632727974</v>
       </c>
       <c r="E38" t="n">
         <v>344.2079706722014</v>
@@ -30241,13 +30241,13 @@
         <v>344.2079706722014</v>
       </c>
       <c r="I38" t="n">
-        <v>334.2202531826063</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="J38" t="n">
-        <v>298.2595143931363</v>
+        <v>314.9770738010025</v>
       </c>
       <c r="K38" t="n">
-        <v>332.7507338100874</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="L38" t="n">
         <v>344.2079706722014</v>
@@ -30256,7 +30256,7 @@
         <v>344.2079706722014</v>
       </c>
       <c r="N38" t="n">
-        <v>337.8748836307253</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="O38" t="n">
         <v>344.2079706722014</v>
@@ -30265,28 +30265,28 @@
         <v>344.2079706722014</v>
       </c>
       <c r="Q38" t="n">
-        <v>340.1120740330044</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="R38" t="n">
-        <v>338.0326179572587</v>
+        <v>344.2079706722014</v>
       </c>
       <c r="S38" t="n">
-        <v>283.4382336441855</v>
+        <v>310.2343085814775</v>
       </c>
       <c r="T38" t="n">
-        <v>262.8957032137235</v>
+        <v>262.895703213724</v>
       </c>
       <c r="U38" t="n">
         <v>248.0272292466047</v>
       </c>
       <c r="V38" t="n">
-        <v>344.2079706722014</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W38" t="n">
-        <v>344.2079706722014</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X38" t="n">
-        <v>344.2079706722014</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y38" t="n">
         <v>344.2079706722014</v>
@@ -30323,31 +30323,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J39" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K39" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L39" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M39" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N39" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O39" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P39" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R39" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S39" t="n">
         <v>237.7770650891449</v>
@@ -30405,7 +30405,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K40" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L40" t="n">
         <v>206.1356836763066</v>
@@ -30414,10 +30414,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O40" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P40" t="n">
         <v>213.1902567391832</v>
@@ -30426,7 +30426,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R40" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S40" t="n">
         <v>263.9664420901331</v>
@@ -30463,7 +30463,7 @@
         <v>343.8280582896567</v>
       </c>
       <c r="D41" t="n">
-        <v>307.933709561332</v>
+        <v>307.9337095613318</v>
       </c>
       <c r="E41" t="n">
         <v>343.8280582896567</v>
@@ -30481,10 +30481,10 @@
         <v>343.8280582896567</v>
       </c>
       <c r="J41" t="n">
-        <v>277.5888009651931</v>
+        <v>282.9765640952839</v>
       </c>
       <c r="K41" t="n">
-        <v>332.7507338100874</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="L41" t="n">
         <v>343.8280582896567</v>
@@ -30502,25 +30502,25 @@
         <v>343.8280582896567</v>
       </c>
       <c r="Q41" t="n">
-        <v>340.1120740330044</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0326179572587</v>
+        <v>343.8280582896567</v>
       </c>
       <c r="S41" t="n">
-        <v>283.4382336441855</v>
+        <v>314.6197866310264</v>
       </c>
       <c r="T41" t="n">
-        <v>255.849698912682</v>
+        <v>256.6889833647556</v>
       </c>
       <c r="U41" t="n">
         <v>279.2087822334456</v>
       </c>
       <c r="V41" t="n">
-        <v>339.4097351473653</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8280582896567</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
         <v>341.4686393609607</v>
@@ -30584,7 +30584,7 @@
         <v>214.1035996885665</v>
       </c>
       <c r="R42" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S42" t="n">
         <v>237.7770650891449</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="C44" t="n">
-        <v>343.8280582896566</v>
+        <v>322.5177365394684</v>
       </c>
       <c r="D44" t="n">
-        <v>318.2215103886273</v>
+        <v>337.8223162596381</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="H44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="I44" t="n">
-        <v>343.8280582896566</v>
+        <v>334.2202531826063</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7703539520325</v>
+        <v>277.5888009651932</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8280582896566</v>
+        <v>332.7507338100875</v>
       </c>
       <c r="L44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="M44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="N44" t="n">
-        <v>337.8748836307253</v>
+        <v>337.8748836307254</v>
       </c>
       <c r="O44" t="n">
-        <v>340.9343579998115</v>
+        <v>340.9343579998117</v>
       </c>
       <c r="P44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Q44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="R44" t="n">
-        <v>343.8280582896566</v>
+        <v>338.0326179572587</v>
       </c>
       <c r="S44" t="n">
         <v>283.4382336441855</v>
       </c>
       <c r="T44" t="n">
-        <v>256.6889833647542</v>
+        <v>256.6889833647555</v>
       </c>
       <c r="U44" t="n">
-        <v>248.0272292466047</v>
+        <v>279.2087822334454</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4097351473651</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.1960100297073</v>
       </c>
       <c r="X44" t="n">
-        <v>343.8280582896566</v>
+        <v>341.4686393609607</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8280582896566</v>
+        <v>343.8280582896568</v>
       </c>
     </row>
     <row r="45">
@@ -30797,31 +30797,31 @@
         <v>158.1185469897758</v>
       </c>
       <c r="J45" t="n">
-        <v>196.2178682873793</v>
+        <v>196.2178682873794</v>
       </c>
       <c r="K45" t="n">
-        <v>207.0831555021328</v>
+        <v>207.0831555021329</v>
       </c>
       <c r="L45" t="n">
-        <v>202.4143841029772</v>
+        <v>202.4143841029774</v>
       </c>
       <c r="M45" t="n">
-        <v>204.4354018270184</v>
+        <v>204.4354018270185</v>
       </c>
       <c r="N45" t="n">
-        <v>186.1956450735332</v>
+        <v>186.1956450735334</v>
       </c>
       <c r="O45" t="n">
-        <v>206.8045250288296</v>
+        <v>206.8045250288297</v>
       </c>
       <c r="P45" t="n">
-        <v>197.7124318732368</v>
+        <v>197.7124318732369</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.1035996885665</v>
+        <v>214.1035996885666</v>
       </c>
       <c r="R45" t="n">
-        <v>230.2276758340868</v>
+        <v>230.2276758340869</v>
       </c>
       <c r="S45" t="n">
         <v>237.7770650891449</v>
@@ -30879,7 +30879,7 @@
         <v>200.1608370104723</v>
       </c>
       <c r="K46" t="n">
-        <v>199.4469922899047</v>
+        <v>199.4469922899048</v>
       </c>
       <c r="L46" t="n">
         <v>206.1356836763066</v>
@@ -30888,10 +30888,10 @@
         <v>211.9929842649128</v>
       </c>
       <c r="N46" t="n">
-        <v>194.0548107881601</v>
+        <v>194.0548107881602</v>
       </c>
       <c r="O46" t="n">
-        <v>212.5832178493288</v>
+        <v>212.5832178493289</v>
       </c>
       <c r="P46" t="n">
         <v>213.1902567391832</v>
@@ -30900,7 +30900,7 @@
         <v>238.8444480189771</v>
       </c>
       <c r="R46" t="n">
-        <v>270.9021456138628</v>
+        <v>270.9021456138629</v>
       </c>
       <c r="S46" t="n">
         <v>263.9664420901331</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H11" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I11" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J11" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K11" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L11" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M11" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N11" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O11" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P11" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R11" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S11" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H12" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I12" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J12" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K12" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L12" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M12" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N12" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O12" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P12" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R12" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S12" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I13" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J13" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K13" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L13" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M13" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N13" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O13" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P13" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R13" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S13" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H14" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I14" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J14" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K14" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L14" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M14" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N14" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O14" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P14" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R14" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S14" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H15" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I15" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J15" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K15" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L15" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M15" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N15" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O15" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P15" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R15" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S15" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U15" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I16" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J16" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K16" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L16" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N16" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O16" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P16" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R16" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S16" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H17" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I17" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J17" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K17" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L17" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M17" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N17" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O17" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P17" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R17" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S17" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I18" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J18" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K18" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L18" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M18" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N18" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O18" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P18" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R18" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S18" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I19" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J19" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K19" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L19" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M19" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N19" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O19" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P19" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R19" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S19" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H20" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I20" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J20" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K20" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L20" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M20" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N20" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O20" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P20" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R20" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S20" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H21" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I21" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J21" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K21" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L21" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M21" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N21" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O21" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P21" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R21" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S21" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I22" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J22" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K22" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L22" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M22" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N22" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O22" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P22" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R22" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S22" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H23" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I23" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J23" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K23" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L23" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M23" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N23" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O23" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P23" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R23" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S23" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H24" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I24" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J24" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K24" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L24" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M24" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N24" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O24" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P24" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R24" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S24" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I25" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J25" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K25" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L25" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M25" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N25" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O25" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P25" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R25" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S25" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H26" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I26" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J26" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K26" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L26" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M26" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N26" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O26" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P26" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R26" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S26" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H27" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I27" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J27" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K27" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L27" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M27" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N27" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O27" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P27" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R27" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S27" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I28" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J28" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K28" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L28" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M28" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N28" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O28" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P28" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R28" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S28" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H29" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I29" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J29" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K29" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L29" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M29" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N29" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O29" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P29" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R29" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S29" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H30" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I30" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J30" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K30" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L30" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M30" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N30" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O30" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P30" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R30" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S30" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I31" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J31" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K31" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L31" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M31" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N31" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O31" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P31" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R31" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S31" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H32" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I32" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J32" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K32" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L32" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M32" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N32" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O32" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P32" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R32" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S32" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H33" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I33" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J33" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K33" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L33" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M33" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N33" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O33" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P33" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R33" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S33" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I34" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J34" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K34" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L34" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M34" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N34" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O34" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P34" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R34" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S34" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H35" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I35" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J35" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K35" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L35" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M35" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N35" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O35" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P35" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R35" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S35" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H36" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I36" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J36" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K36" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L36" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M36" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N36" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O36" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P36" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R36" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S36" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I37" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J37" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K37" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L37" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M37" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N37" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O37" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P37" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R37" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S37" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H38" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I38" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J38" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K38" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L38" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M38" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N38" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O38" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P38" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R38" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S38" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H39" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I39" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J39" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K39" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L39" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M39" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N39" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O39" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P39" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R39" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S39" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I40" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J40" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K40" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L40" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M40" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N40" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O40" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P40" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R40" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S40" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,13 +34123,13 @@
         <v>0.1957117941727819</v>
       </c>
       <c r="H41" t="n">
-        <v>2.004333412072003</v>
+        <v>2.004333412072004</v>
       </c>
       <c r="I41" t="n">
-        <v>7.545178944846182</v>
+        <v>7.545178944846183</v>
       </c>
       <c r="J41" t="n">
-        <v>16.61079389067216</v>
+        <v>16.61079389067217</v>
       </c>
       <c r="K41" t="n">
         <v>24.89527413800603</v>
@@ -34138,13 +34138,13 @@
         <v>30.88478895892131</v>
       </c>
       <c r="M41" t="n">
-        <v>34.36527857854151</v>
+        <v>34.36527857854152</v>
       </c>
       <c r="N41" t="n">
         <v>34.92134471373494</v>
       </c>
       <c r="O41" t="n">
-        <v>32.97523556042933</v>
+        <v>32.97523556042934</v>
       </c>
       <c r="P41" t="n">
         <v>28.14360064178878</v>
@@ -34156,10 +34156,10 @@
         <v>12.29388099070602</v>
       </c>
       <c r="S41" t="n">
-        <v>4.459782509712272</v>
+        <v>4.459782509712273</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8567283789913532</v>
+        <v>0.8567283789913533</v>
       </c>
       <c r="U41" t="n">
         <v>0.01565694353382255</v>
@@ -34208,7 +34208,7 @@
         <v>3.605320510224193</v>
       </c>
       <c r="J42" t="n">
-        <v>9.893275045954056</v>
+        <v>9.893275045954057</v>
       </c>
       <c r="K42" t="n">
         <v>16.90918283120052</v>
@@ -34217,16 +34217,16 @@
         <v>22.7364830393183</v>
       </c>
       <c r="M42" t="n">
-        <v>26.53240329626134</v>
+        <v>26.53240329626135</v>
       </c>
       <c r="N42" t="n">
-        <v>27.23463706188336</v>
+        <v>27.23463706188337</v>
       </c>
       <c r="O42" t="n">
         <v>24.91437219339258</v>
       </c>
       <c r="P42" t="n">
-        <v>19.99598017504979</v>
+        <v>19.9959801750498</v>
       </c>
       <c r="Q42" t="n">
         <v>13.36678320121846</v>
@@ -34235,13 +34235,13 @@
         <v>6.50151810735461</v>
       </c>
       <c r="S42" t="n">
-        <v>1.945035969528591</v>
+        <v>1.945035969528592</v>
       </c>
       <c r="T42" t="n">
         <v>0.4220751017701951</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006889147471765975</v>
+        <v>0.006889147471765976</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08778957324676637</v>
+        <v>0.08778957324676638</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7805291148667052</v>
+        <v>0.7805291148667053</v>
       </c>
       <c r="I43" t="n">
-        <v>2.64007189363912</v>
+        <v>2.640071893639121</v>
       </c>
       <c r="J43" t="n">
-        <v>6.206722828546382</v>
+        <v>6.206722828546383</v>
       </c>
       <c r="K43" t="n">
         <v>10.19955223721522</v>
@@ -34296,7 +34296,7 @@
         <v>13.05191528070561</v>
       </c>
       <c r="M43" t="n">
-        <v>13.76141464994538</v>
+        <v>13.76141464994539</v>
       </c>
       <c r="N43" t="n">
         <v>13.43419896784381</v>
@@ -34308,7 +34308,7 @@
         <v>10.61774984068163</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.35117962887241</v>
+        <v>7.351179628872411</v>
       </c>
       <c r="R43" t="n">
         <v>3.947338447986422</v>
@@ -34317,10 +34317,10 @@
         <v>1.529932835582283</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3751009038725471</v>
+        <v>0.3751009038725472</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004788522177096353</v>
+        <v>0.004788522177096354</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1957117941727822</v>
+        <v>0.1957117941727813</v>
       </c>
       <c r="H44" t="n">
-        <v>2.004333412072006</v>
+        <v>2.004333412071997</v>
       </c>
       <c r="I44" t="n">
-        <v>7.545178944846193</v>
+        <v>7.545178944846158</v>
       </c>
       <c r="J44" t="n">
-        <v>16.61079389067219</v>
+        <v>16.61079389067211</v>
       </c>
       <c r="K44" t="n">
-        <v>24.89527413800606</v>
+        <v>24.89527413800595</v>
       </c>
       <c r="L44" t="n">
-        <v>30.88478895892135</v>
+        <v>30.88478895892121</v>
       </c>
       <c r="M44" t="n">
-        <v>34.36527857854157</v>
+        <v>34.36527857854141</v>
       </c>
       <c r="N44" t="n">
-        <v>34.92134471373499</v>
+        <v>34.92134471373483</v>
       </c>
       <c r="O44" t="n">
-        <v>32.97523556042938</v>
+        <v>32.97523556042923</v>
       </c>
       <c r="P44" t="n">
-        <v>28.14360064178882</v>
+        <v>28.14360064178869</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.13467201297605</v>
+        <v>21.13467201297595</v>
       </c>
       <c r="R44" t="n">
-        <v>12.29388099070604</v>
+        <v>12.29388099070598</v>
       </c>
       <c r="S44" t="n">
-        <v>4.459782509712279</v>
+        <v>4.459782509712258</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8567283789913545</v>
+        <v>0.8567283789913505</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01565694353382257</v>
+        <v>0.0156569435338225</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1047150415708429</v>
+        <v>0.1047150415708425</v>
       </c>
       <c r="H45" t="n">
-        <v>1.011326848855246</v>
+        <v>1.011326848855242</v>
       </c>
       <c r="I45" t="n">
-        <v>3.605320510224198</v>
+        <v>3.605320510224181</v>
       </c>
       <c r="J45" t="n">
-        <v>9.89327504595407</v>
+        <v>9.893275045954024</v>
       </c>
       <c r="K45" t="n">
-        <v>16.90918283120055</v>
+        <v>16.90918283120047</v>
       </c>
       <c r="L45" t="n">
-        <v>22.73648303931833</v>
+        <v>22.73648303931823</v>
       </c>
       <c r="M45" t="n">
-        <v>26.53240329626138</v>
+        <v>26.53240329626126</v>
       </c>
       <c r="N45" t="n">
-        <v>27.2346370618834</v>
+        <v>27.23463706188327</v>
       </c>
       <c r="O45" t="n">
-        <v>24.91437219339262</v>
+        <v>24.9143721933925</v>
       </c>
       <c r="P45" t="n">
-        <v>19.99598017504982</v>
+        <v>19.99598017504973</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.36678320121848</v>
+        <v>13.36678320121842</v>
       </c>
       <c r="R45" t="n">
-        <v>6.501518107354619</v>
+        <v>6.501518107354588</v>
       </c>
       <c r="S45" t="n">
-        <v>1.945035969528594</v>
+        <v>1.945035969528585</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4220751017701957</v>
+        <v>0.4220751017701938</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006889147471765986</v>
+        <v>0.006889147471765953</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08778957324676649</v>
+        <v>0.08778957324676609</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7805291148667063</v>
+        <v>0.7805291148667027</v>
       </c>
       <c r="I46" t="n">
-        <v>2.640071893639124</v>
+        <v>2.640071893639112</v>
       </c>
       <c r="J46" t="n">
-        <v>6.206722828546391</v>
+        <v>6.206722828546362</v>
       </c>
       <c r="K46" t="n">
-        <v>10.19955223721523</v>
+        <v>10.19955223721519</v>
       </c>
       <c r="L46" t="n">
-        <v>13.05191528070563</v>
+        <v>13.05191528070557</v>
       </c>
       <c r="M46" t="n">
-        <v>13.7614146499454</v>
+        <v>13.76141464994534</v>
       </c>
       <c r="N46" t="n">
-        <v>13.43419896784383</v>
+        <v>13.43419896784377</v>
       </c>
       <c r="O46" t="n">
-        <v>12.40865713491569</v>
+        <v>12.40865713491563</v>
       </c>
       <c r="P46" t="n">
-        <v>10.61774984068165</v>
+        <v>10.6177498406816</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.351179628872421</v>
+        <v>7.351179628872386</v>
       </c>
       <c r="R46" t="n">
-        <v>3.947338447986427</v>
+        <v>3.947338447986409</v>
       </c>
       <c r="S46" t="n">
-        <v>1.529932835582285</v>
+        <v>1.529932835582277</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3751009038725477</v>
+        <v>0.3751009038725459</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00478852217709636</v>
+        <v>0.004788522177096338</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="D11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,19 +35404,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.565756589263685</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.044578023423491</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="K11" t="n">
-        <v>8.035275961782588</v>
+        <v>3.566252989321129</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8386593560933377</v>
+        <v>0.8386593560933306</v>
       </c>
       <c r="N11" t="n">
         <v>2.911126141144678</v>
@@ -35428,25 +35428,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6739357388655662</v>
+        <v>0.6739357388656195</v>
       </c>
       <c r="R11" t="n">
-        <v>2.753391814611289</v>
+        <v>2.753391814611401</v>
       </c>
       <c r="S11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.124915169046488</v>
       </c>
       <c r="U11" t="n">
-        <v>9.954442416102966</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="V11" t="n">
-        <v>9.954442416102966</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="D14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,22 +35641,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.565756589263685</v>
+        <v>6.565756589263628</v>
       </c>
       <c r="J14" t="n">
-        <v>1.83078899552288</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="K14" t="n">
-        <v>8.035275961782588</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8386593560933306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.911126141144507</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,25 +35665,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6739357388655662</v>
+        <v>0.673935738865449</v>
       </c>
       <c r="R14" t="n">
-        <v>2.753391814611289</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="U14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="V14" t="n">
-        <v>6.124915169046631</v>
+        <v>6.717462739809037</v>
       </c>
       <c r="W14" t="n">
-        <v>9.954442416103308</v>
+        <v>9.954442416103007</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35860,10 +35860,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.73163398341416</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="D17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -35878,19 +35878,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.788218017941688</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.15009736428578</v>
       </c>
       <c r="K17" t="n">
-        <v>9.257737390460591</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.061120784771333</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,28 +35902,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.896397167543569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.975853243289293</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="T17" t="n">
-        <v>6.139124932628155</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>16.16116226507131</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>16.16116226507125</v>
+        <v>12.07865773027964</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5398318395872366</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>16.16116226507341</v>
+        <v>12.73163398341399</v>
       </c>
       <c r="D20" t="n">
-        <v>12.73163398341092</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,52 +36115,52 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.788218017941574</v>
       </c>
       <c r="J20" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>9.25773739046042</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.061120784771106</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.133587569822453</v>
       </c>
       <c r="O20" t="n">
-        <v>1.074113200736747</v>
+        <v>1.074113200736178</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.89639716754391</v>
+        <v>1.896397167543398</v>
       </c>
       <c r="R20" t="n">
-        <v>3.975853243289633</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.16116226507341</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>16.16116226507115</v>
       </c>
       <c r="U20" t="n">
-        <v>16.16116226507341</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.010925659992608</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>16.16116226507341</v>
+        <v>5.447109244947683</v>
       </c>
       <c r="X20" t="n">
-        <v>0.5398318395875776</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,10 +36334,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04994246683855863</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,37 +36367,37 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.953174658931459</v>
+        <v>5.95317465893136</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.893700289845071</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.715984256652348</v>
+        <v>3.715984256652291</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>5.795440332398069</v>
       </c>
       <c r="S23" t="n">
-        <v>28.47703794184011</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="U23" t="n">
-        <v>31.18155298684087</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.47842085774045</v>
       </c>
       <c r="W23" t="n">
-        <v>26.8157966507838</v>
+        <v>26.81579665078385</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2.359418928696073</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,10 +36571,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.36026421702638</v>
+        <v>21.36026421702633</v>
       </c>
       <c r="D26" t="n">
-        <v>1.29294628853313</v>
+        <v>1.292946288534097</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -36589,52 +36589,52 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.607805107050581</v>
+        <v>9.607805107050467</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="K26" t="n">
-        <v>11.07732447956947</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>3.880707873880226</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.893700289845299</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.715984256652291</v>
       </c>
       <c r="R26" t="n">
-        <v>5.795440332398186</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.1100847941019</v>
+        <v>29.03493610578249</v>
       </c>
       <c r="T26" t="n">
-        <v>31.18155298684087</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="V26" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="W26" t="n">
-        <v>26.81579665078391</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2.35941892869613</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>21.36026421702638</v>
       </c>
       <c r="D29" t="n">
-        <v>31.18155298684087</v>
+        <v>12.33914060041292</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,22 +36826,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.607805107050581</v>
+        <v>9.607805107050524</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>11.07732447956948</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.880707873880226</v>
+        <v>3.880707873880056</v>
       </c>
       <c r="N29" t="n">
-        <v>5.953174658931573</v>
+        <v>5.953174658931403</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36850,22 +36850,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.71598425665244</v>
+        <v>3.715984256652348</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.795440332398126</v>
       </c>
       <c r="S29" t="n">
-        <v>31.18155298684087</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="U29" t="n">
-        <v>31.18155298684087</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="V29" t="n">
-        <v>28.41752067026511</v>
+        <v>31.18155298684081</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -37045,7 +37045,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.34948651321787</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.59702740324207</v>
+        <v>10.59702740324212</v>
       </c>
       <c r="J32" t="n">
-        <v>47.34271525191208</v>
+        <v>47.3427152519123</v>
       </c>
       <c r="K32" t="n">
         <v>12.06654677576097</v>
@@ -37075,31 +37075,31 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.869930170071711</v>
+        <v>1.908461230547857</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>6.942396955123002</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3.882922586036727</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.705206552843944</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.56228589317561</v>
+        <v>47.3427152519123</v>
       </c>
       <c r="T32" t="n">
-        <v>47.34271525191208</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>47.3427152519123</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -37108,7 +37108,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.348641224887615</v>
+        <v>3.348641224887729</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.705360411994344</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.705360411992822</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,52 +37300,52 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10.59702740324212</v>
       </c>
       <c r="J35" t="n">
-        <v>25.89050225859247</v>
+        <v>37.38827283580883</v>
       </c>
       <c r="K35" t="n">
-        <v>12.06654677576056</v>
+        <v>12.06654677576096</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.869930170071669</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.882922586036386</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.705206552843528</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.784662628589272</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.38827283580912</v>
+        <v>37.38827283580883</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>37.38827283580883</v>
       </c>
       <c r="V35" t="n">
-        <v>36.58909842532353</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>27.805018946975</v>
+        <v>18.76254937831396</v>
       </c>
       <c r="X35" t="n">
-        <v>3.348641224887217</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>21.74017659957099</v>
       </c>
       <c r="D38" t="n">
-        <v>37.38827283580877</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37537,52 +37537,52 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.987717489595127</v>
       </c>
       <c r="J38" t="n">
-        <v>20.67071342794327</v>
+        <v>37.38827283580929</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>11.45723686211397</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.260620256424772</v>
+        <v>4.260620256424659</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.33308704147602</v>
       </c>
       <c r="O38" t="n">
-        <v>3.273612672389845</v>
+        <v>3.273612672389731</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.095896639196951</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.175352714942733</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.79607493729199</v>
       </c>
       <c r="T38" t="n">
-        <v>37.38827283580877</v>
+        <v>37.38827283580929</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>35.97978851167699</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>27.19570903332846</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739331311240676</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -37759,7 +37759,7 @@
         <v>21.36026421702627</v>
       </c>
       <c r="D41" t="n">
-        <v>1.292946288534608</v>
+        <v>1.292946288534381</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>9.60780510705041</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.387763130090832</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>11.07732447956931</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37792,31 +37792,31 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.893700289845128</v>
+        <v>2.893700289845142</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3.715984256652291</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.795440332398053</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>31.18155298684087</v>
       </c>
       <c r="T41" t="n">
-        <v>30.3422685347672</v>
+        <v>31.18155298684087</v>
       </c>
       <c r="U41" t="n">
         <v>31.18155298684087</v>
       </c>
       <c r="V41" t="n">
-        <v>31.18155298684087</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>26.8157966507838</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>21.36026421702616</v>
+        <v>0.0499424668379902</v>
       </c>
       <c r="D44" t="n">
-        <v>11.58074711582992</v>
+        <v>31.18155298684071</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.607805107050353</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.18155298683942</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>11.07732447956926</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38035,28 +38035,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.715984256652234</v>
+        <v>3.715984256652291</v>
       </c>
       <c r="R44" t="n">
-        <v>5.795440332397957</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>31.18155298683942</v>
+        <v>31.18155298684071</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>31.18155298684071</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>31.18155298684071</v>
       </c>
       <c r="W44" t="n">
-        <v>26.81579665078368</v>
+        <v>26.18374839083435</v>
       </c>
       <c r="X44" t="n">
-        <v>2.359418928695902</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
